--- a/name_match.xlsx
+++ b/name_match.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ugcsitse/Downloads/"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="68">
   <si>
     <t>UGName</t>
   </si>
@@ -232,12 +232,19 @@
   </si>
   <si>
     <t>KISSI AUGUSTINA E N A</t>
+  </si>
+  <si>
+    <t>match</t>
+  </si>
+  <si>
+    <t>not match</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -591,7 +598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B04EC140-890E-6F42-8821-28A2CB2476A9}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B38"/>
@@ -599,8 +606,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="49.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -618,6 +625,9 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -626,6 +636,9 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -634,6 +647,9 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -642,6 +658,9 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -650,6 +669,9 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -658,6 +680,9 @@
       <c r="B7" t="s">
         <v>12</v>
       </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -666,6 +691,9 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -674,6 +702,9 @@
       <c r="B9" t="s">
         <v>16</v>
       </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -682,6 +713,9 @@
       <c r="B10" t="s">
         <v>18</v>
       </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -690,6 +724,9 @@
       <c r="B11" t="s">
         <v>19</v>
       </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -698,6 +735,9 @@
       <c r="B12" t="s">
         <v>21</v>
       </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -706,6 +746,9 @@
       <c r="B13" t="s">
         <v>22</v>
       </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -714,6 +757,9 @@
       <c r="B14" t="s">
         <v>23</v>
       </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -722,6 +768,9 @@
       <c r="B15" t="s">
         <v>25</v>
       </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -730,6 +779,9 @@
       <c r="B16" t="s">
         <v>27</v>
       </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -738,6 +790,9 @@
       <c r="B17" t="s">
         <v>29</v>
       </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -746,6 +801,9 @@
       <c r="B18" t="s">
         <v>31</v>
       </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -754,6 +812,9 @@
       <c r="B19" t="s">
         <v>33</v>
       </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -762,6 +823,9 @@
       <c r="B20" t="s">
         <v>34</v>
       </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -770,6 +834,9 @@
       <c r="B21" t="s">
         <v>36</v>
       </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -778,6 +845,9 @@
       <c r="B22" t="s">
         <v>38</v>
       </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -786,6 +856,9 @@
       <c r="B23" t="s">
         <v>40</v>
       </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -794,6 +867,9 @@
       <c r="B24" t="s">
         <v>42</v>
       </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -802,6 +878,9 @@
       <c r="B25" t="s">
         <v>44</v>
       </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -810,6 +889,9 @@
       <c r="B26" t="s">
         <v>46</v>
       </c>
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -818,6 +900,9 @@
       <c r="B27" t="s">
         <v>48</v>
       </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -826,6 +911,9 @@
       <c r="B28" t="s">
         <v>50</v>
       </c>
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -834,6 +922,9 @@
       <c r="B29" t="s">
         <v>52</v>
       </c>
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -842,6 +933,9 @@
       <c r="B30" t="s">
         <v>54</v>
       </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -850,6 +944,9 @@
       <c r="B31" t="s">
         <v>56</v>
       </c>
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -858,6 +955,9 @@
       <c r="B32" t="s">
         <v>58</v>
       </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -866,6 +966,9 @@
       <c r="B33" t="s">
         <v>60</v>
       </c>
+      <c r="C33" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -874,6 +977,9 @@
       <c r="B34" t="s">
         <v>60</v>
       </c>
+      <c r="C34" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -882,6 +988,9 @@
       <c r="B35" t="s">
         <v>62</v>
       </c>
+      <c r="C35" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -890,6 +999,9 @@
       <c r="B36" t="s">
         <v>63</v>
       </c>
+      <c r="C36" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -898,6 +1010,9 @@
       <c r="B37" t="s">
         <v>63</v>
       </c>
+      <c r="C37" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -905,6 +1020,9 @@
       </c>
       <c r="B38" t="s">
         <v>65</v>
+      </c>
+      <c r="C38" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/name_match.xlsx
+++ b/name_match.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="73">
   <si>
     <t>UGName</t>
   </si>
@@ -238,6 +238,21 @@
   </si>
   <si>
     <t>not match</t>
+  </si>
+  <si>
+    <t>match by 1</t>
+  </si>
+  <si>
+    <t>match by 2</t>
+  </si>
+  <si>
+    <t>match by 3</t>
+  </si>
+  <si>
+    <t>match by 0</t>
+  </si>
+  <si>
+    <t>match by 4</t>
   </si>
 </sst>
 </file>
@@ -626,7 +641,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -637,7 +652,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -648,7 +663,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -659,7 +674,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -670,7 +685,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -681,7 +696,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -692,7 +707,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -703,7 +718,7 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -714,7 +729,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -725,7 +740,7 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -736,7 +751,7 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -747,7 +762,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -758,7 +773,7 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -769,7 +784,7 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -780,7 +795,7 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -791,7 +806,7 @@
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -802,7 +817,7 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -813,7 +828,7 @@
         <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -824,7 +839,7 @@
         <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -835,7 +850,7 @@
         <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -846,7 +861,7 @@
         <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -857,7 +872,7 @@
         <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -868,7 +883,7 @@
         <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -879,7 +894,7 @@
         <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -890,7 +905,7 @@
         <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -901,7 +916,7 @@
         <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -912,7 +927,7 @@
         <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -923,7 +938,7 @@
         <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -934,7 +949,7 @@
         <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -945,7 +960,7 @@
         <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -956,7 +971,7 @@
         <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -967,7 +982,7 @@
         <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -978,7 +993,7 @@
         <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -989,7 +1004,7 @@
         <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1000,7 +1015,7 @@
         <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1011,7 +1026,7 @@
         <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1022,7 +1037,7 @@
         <v>65</v>
       </c>
       <c r="C38" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/name_match.xlsx
+++ b/name_match.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="73">
   <si>
     <t>UGName</t>
   </si>

--- a/name_match.xlsx
+++ b/name_match.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="73">
   <si>
     <t>UGName</t>
   </si>
@@ -806,7 +806,7 @@
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -861,7 +861,7 @@
         <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -883,7 +883,7 @@
         <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -982,7 +982,7 @@
         <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -993,7 +993,7 @@
         <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1015,7 +1015,7 @@
         <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1026,7 +1026,7 @@
         <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">

--- a/name_match.xlsx
+++ b/name_match.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="73">
   <si>
     <t>UGName</t>
   </si>

--- a/name_match.xlsx
+++ b/name_match.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2417" uniqueCount="74">
   <si>
     <t>UGName</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>match by 4</t>
+  </si>
+  <si>
+    <t>match by 5</t>
   </si>
 </sst>
 </file>
@@ -641,7 +644,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -652,7 +655,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -663,7 +666,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -674,7 +677,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -685,7 +688,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -696,7 +699,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -707,7 +710,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -718,7 +721,7 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -729,7 +732,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -740,7 +743,7 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -751,7 +754,7 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -762,7 +765,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -773,7 +776,7 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -784,7 +787,7 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -795,7 +798,7 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -817,7 +820,7 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -828,7 +831,7 @@
         <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -839,7 +842,7 @@
         <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -850,7 +853,7 @@
         <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -861,7 +864,7 @@
         <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -872,7 +875,7 @@
         <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -883,7 +886,7 @@
         <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -894,7 +897,7 @@
         <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -905,7 +908,7 @@
         <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -916,7 +919,7 @@
         <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -927,7 +930,7 @@
         <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -938,7 +941,7 @@
         <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -949,7 +952,7 @@
         <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -960,7 +963,7 @@
         <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -971,7 +974,7 @@
         <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1004,7 +1007,7 @@
         <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1015,7 +1018,7 @@
         <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1026,7 +1029,7 @@
         <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1037,7 +1040,7 @@
         <v>65</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/name_match.xlsx
+++ b/name_match.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2417" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="74">
   <si>
     <t>UGName</t>
   </si>
@@ -688,7 +688,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -974,7 +974,7 @@
         <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
